--- a/Document/project-M.xlsx
+++ b/Document/project-M.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\WORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\PROJECT-M\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12405" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="기본 사양서" sheetId="1" r:id="rId1"/>
-    <sheet name="공통 규칙" sheetId="2" r:id="rId2"/>
+    <sheet name="기본 사양서" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="기본 사양서(수정1)" sheetId="3" r:id="rId2"/>
+    <sheet name="공통 규칙" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -744,8 +745,728 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 사용자</author>
+  </authors>
+  <commentList>
+    <comment ref="D36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충돌체</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파괴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (LOD </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ASE / OBJ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>네트워크</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ASE / OBJ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AI, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">네트워크
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, UI </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Windows </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용자</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FMOD </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BGM, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과음</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>1. 장르 : MOBA / 액션 / TPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -985,6 +1706,26 @@
   </si>
   <si>
     <t>정: 고은호 봉영균 / 부: 신명철 심현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 추출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1521,7 +2262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,6 +2428,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,16 +2467,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2008,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39:Q40"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2151,153 +2925,153 @@
     </row>
     <row r="26" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
     </row>
     <row r="27" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
     </row>
     <row r="28" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
     </row>
     <row r="29" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="64" t="s">
+      <c r="E29" s="58"/>
+      <c r="F29" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
     </row>
     <row r="30" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
@@ -2308,8 +3082,8 @@
       </c>
     </row>
     <row r="32" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="38">
         <v>30</v>
       </c>
@@ -2412,12 +3186,12 @@
         <v>15</v>
       </c>
       <c r="E33" s="33"/>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="3"/>
       <c r="K33" s="28"/>
       <c r="L33" s="3"/>
@@ -2452,10 +3226,10 @@
         <v>16</v>
       </c>
       <c r="E34" s="35"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="3"/>
       <c r="K34" s="28"/>
       <c r="L34" s="3"/>
@@ -2490,12 +3264,12 @@
         <v>17</v>
       </c>
       <c r="E35" s="35"/>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28"/>
       <c r="L35" s="3"/>
@@ -2869,7 +3643,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="48"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="67" t="s">
+      <c r="W44" s="55" t="s">
         <v>61</v>
       </c>
       <c r="X44" s="9"/>
@@ -3003,6 +3777,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="AF29:AG29"/>
     <mergeCell ref="AH29:AI29"/>
@@ -3019,57 +3844,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3082,6 +3856,1091 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AK47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="5" max="37" width="4.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="27"/>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="27"/>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B16" s="27"/>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="27"/>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="27"/>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="27"/>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="27"/>
+      <c r="D26" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+    </row>
+    <row r="27" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="27"/>
+      <c r="D27" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+    </row>
+    <row r="28" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="27"/>
+      <c r="D28" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="58"/>
+      <c r="F28" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+    </row>
+    <row r="29" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+      <c r="D29" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="58"/>
+      <c r="F29" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+    </row>
+    <row r="30" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+    </row>
+    <row r="31" spans="2:37" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="38">
+        <v>30</v>
+      </c>
+      <c r="G32" s="39">
+        <v>31</v>
+      </c>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
+      <c r="I32" s="39">
+        <v>2</v>
+      </c>
+      <c r="J32" s="39">
+        <v>3</v>
+      </c>
+      <c r="K32" s="40">
+        <v>4</v>
+      </c>
+      <c r="L32" s="39">
+        <v>5</v>
+      </c>
+      <c r="M32" s="39">
+        <v>6</v>
+      </c>
+      <c r="N32" s="39">
+        <v>7</v>
+      </c>
+      <c r="O32" s="39">
+        <v>8</v>
+      </c>
+      <c r="P32" s="39">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>10</v>
+      </c>
+      <c r="R32" s="40">
+        <v>11</v>
+      </c>
+      <c r="S32" s="39">
+        <v>12</v>
+      </c>
+      <c r="T32" s="39">
+        <v>13</v>
+      </c>
+      <c r="U32" s="39">
+        <v>14</v>
+      </c>
+      <c r="V32" s="39">
+        <v>15</v>
+      </c>
+      <c r="W32" s="39">
+        <v>16</v>
+      </c>
+      <c r="X32" s="39">
+        <v>17</v>
+      </c>
+      <c r="Y32" s="40">
+        <v>18</v>
+      </c>
+      <c r="Z32" s="39">
+        <v>19</v>
+      </c>
+      <c r="AA32" s="39">
+        <v>20</v>
+      </c>
+      <c r="AB32" s="39">
+        <v>21</v>
+      </c>
+      <c r="AC32" s="39">
+        <v>22</v>
+      </c>
+      <c r="AD32" s="39">
+        <v>23</v>
+      </c>
+      <c r="AE32" s="39">
+        <v>24</v>
+      </c>
+      <c r="AF32" s="40">
+        <v>25</v>
+      </c>
+      <c r="AG32" s="39">
+        <v>26</v>
+      </c>
+      <c r="AH32" s="39">
+        <v>27</v>
+      </c>
+      <c r="AI32" s="39">
+        <v>28</v>
+      </c>
+      <c r="AJ32" s="39">
+        <v>29</v>
+      </c>
+      <c r="AK32" s="41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="4:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="29"/>
+    </row>
+    <row r="34" spans="4:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="29"/>
+    </row>
+    <row r="35" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="29"/>
+    </row>
+    <row r="36" spans="4:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="29"/>
+    </row>
+    <row r="37" spans="4:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="18"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="29"/>
+    </row>
+    <row r="38" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="29"/>
+    </row>
+    <row r="39" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="29"/>
+    </row>
+    <row r="40" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="29"/>
+    </row>
+    <row r="41" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" s="52"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="29"/>
+    </row>
+    <row r="42" spans="4:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" s="19"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="29"/>
+    </row>
+    <row r="43" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="29"/>
+    </row>
+    <row r="44" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="29"/>
+    </row>
+    <row r="45" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="3"/>
+      <c r="AA45" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="29"/>
+    </row>
+    <row r="46" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="V46" s="9"/>
+      <c r="W46" s="10"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="29"/>
+    </row>
+    <row r="47" spans="4:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="16383" man="1"/>
+  </rowBreaks>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D10"/>
   <sheetViews>

--- a/Document/project-M.xlsx
+++ b/Document/project-M.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\PROJECT-M\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Project-M\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12405" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12405" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="기본 사양서" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="기본 사양서(수정1)" sheetId="3" r:id="rId2"/>
     <sheet name="공통 규칙" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="네트워크" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1465,8 +1467,864 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 사용자</author>
+  </authors>
+  <commentList>
+    <comment ref="I23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 : 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번팀
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2 : 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번팀
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>달리기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시계방향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정면
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">우측
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">후방
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌측</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 : default
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">달리기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벽에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부딪힘</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">몬스터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">오브젝트
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">허공
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호
+맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번호
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미정시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>달리기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시계방향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정면
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">우측
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">후방
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌측</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 : default
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">달리기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벽에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부딪힘</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">몬스터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">오브젝트
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">허공
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호
+맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번호
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>1. 장르 : MOBA / 액션 / TPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1726,6 +2584,226 @@
   </si>
   <si>
     <t>캐릭터 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 -&gt; 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 서버 접속, 접속해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 키 입력의 변경 (keyup or keydown)시 때마다 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 다른 플레이어나 오브젝트에 영향을 줄 때 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 -&gt; 클라이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 모든 유저들의 상태정보 (받는 유저 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 오브젝트 정보(파괴 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 4명 접속했거나 게임 시작시 더 이상 연결 안 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 명령어와 인자는 띄어쓰기로 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속시 유저 이름 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectCharater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int characterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택 혹은 변경시 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setupPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float position.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float position.y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float position.z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float directionY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int selectCharater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 시 캐릭터 위치, y축 방향, 선택한 캐릭터, 팀 정보를 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int characterDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방향키를 누르때, 뗄 때, 벽에 부딪칠때 마다 보냄. 동기화를 위해 현재 위치와 나아가는 방향을 보냄. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float directionX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float directionZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MonsterOrObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MonsterOrObjectNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총을 쐈을때 클라이언트에서 다른 캐릭터나 오브젝트를 맞췄다고 판단되면 보냄. 서버에서 메시지를 받으면 서버의 정보를 참고해 한번 더 판단. 만약 맞았다고 판단되면 처리함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 모션을 시작하면 보냄( 1 : 재장전, 2 : …?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherPlayerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int playerNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string playerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 접속시 다른 유저들에게 접속한 유저의 아이디와 번호를 넘긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 캐릭터 선택 혹은 변경시 메시지를 보낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherPlayerInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int charaterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대기방 접속시 미리 접속해있던 다른 플레이어의 정보를 보내준다. 새로운 유저가 접속시 대기중이던 유저들에게 보낸다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2262,7 +3340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2431,74 +3509,80 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2925,153 +4009,153 @@
     </row>
     <row r="26" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
     </row>
     <row r="27" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
     </row>
     <row r="28" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
     </row>
     <row r="29" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
     </row>
     <row r="30" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
@@ -3082,8 +4166,8 @@
       </c>
     </row>
     <row r="32" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="38">
         <v>30</v>
       </c>
@@ -3186,12 +4270,12 @@
         <v>15</v>
       </c>
       <c r="E33" s="33"/>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="3"/>
       <c r="K33" s="28"/>
       <c r="L33" s="3"/>
@@ -3226,10 +4310,10 @@
         <v>16</v>
       </c>
       <c r="E34" s="35"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="3"/>
       <c r="K34" s="28"/>
       <c r="L34" s="3"/>
@@ -3264,12 +4348,12 @@
         <v>17</v>
       </c>
       <c r="E35" s="35"/>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="75"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28"/>
       <c r="L35" s="3"/>
@@ -3777,57 +4861,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="F33:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="AF29:AG29"/>
     <mergeCell ref="AH29:AI29"/>
@@ -3844,6 +4877,57 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="F33:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3859,7 +4943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
@@ -4002,165 +5086,165 @@
     </row>
     <row r="26" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57" t="s">
+      <c r="G26" s="76"/>
+      <c r="H26" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
     </row>
     <row r="27" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57" t="s">
+      <c r="E27" s="78"/>
+      <c r="F27" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57" t="s">
+      <c r="G27" s="76"/>
+      <c r="H27" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
     </row>
     <row r="28" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57" t="s">
+      <c r="E28" s="78"/>
+      <c r="F28" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
     </row>
     <row r="29" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57" t="s">
+      <c r="G29" s="76"/>
+      <c r="H29" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
     </row>
     <row r="30" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
@@ -4171,8 +5255,8 @@
       </c>
     </row>
     <row r="32" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="38">
         <v>30</v>
       </c>
@@ -4275,13 +5359,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="33"/>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="74"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="62"/>
       <c r="K33" s="28"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -4315,11 +5399,11 @@
         <v>16</v>
       </c>
       <c r="E34" s="35"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="75"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="28"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -4353,13 +5437,13 @@
         <v>17</v>
       </c>
       <c r="E35" s="35"/>
-      <c r="F35" s="72" t="s">
+      <c r="F35" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="76"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="28"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4397,7 +5481,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="K36" s="77"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4436,7 +5520,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="K37" s="77"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="17" t="s">
         <v>43</v>
       </c>
@@ -4476,7 +5560,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="78"/>
+      <c r="K38" s="66"/>
       <c r="L38" s="11" t="s">
         <v>48</v>
       </c>
@@ -4558,7 +5642,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="78"/>
+      <c r="K40" s="66"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4678,7 +5762,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="78"/>
+      <c r="K43" s="66"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -4794,7 +5878,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="78"/>
+      <c r="K46" s="66"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4864,17 +5948,44 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
     <mergeCell ref="AB28:AC28"/>
     <mergeCell ref="AD28:AE28"/>
     <mergeCell ref="AF28:AG28"/>
@@ -4891,44 +6002,17 @@
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="X28:Y28"/>
     <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5003,4 +6087,378 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" customWidth="1"/>
+    <col min="14" max="14" width="76.75" style="80" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="79"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="N39" s="80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L41" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Document/project-M.xlsx
+++ b/Document/project-M.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\PROJECT-M\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project-M\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86973ABD-6BE5-4EE3-9D45-560ADAB3142D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="12405" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="7785" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 사양서" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="기본 사양서(수정1)" sheetId="3" r:id="rId2"/>
     <sheet name="공통 규칙" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="네트워크" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="D36" authorId="0" shapeId="0">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0">
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -666,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0" shapeId="0">
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -746,12 +749,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 사용자</author>
   </authors>
   <commentList>
-    <comment ref="D36" authorId="0" shapeId="0">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -986,7 +989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0">
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0" shapeId="0">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0">
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1386,7 +1389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0" shapeId="0">
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1458,6 +1461,862 @@
             <charset val="129"/>
           </rPr>
           <t>효과음</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows 사용자</author>
+  </authors>
+  <commentList>
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 : 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번팀
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2 : 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번팀
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>달리기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시계방향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정면
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">우측
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">후방
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌측</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 : default
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">달리기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벽에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부딪힘</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">몬스터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">오브젝트
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">허공
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호
+맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번호
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미정시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>달리기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시계방향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">정면
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">우측
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">후방
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좌측</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 : default
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">달리기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벽에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부딪힘</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">몬스터
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">오브젝트
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">허공
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호
+맞은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오브젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">번호
+</t>
         </r>
       </text>
     </comment>
@@ -1466,7 +2325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>1. 장르 : MOBA / 액션 / TPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1726,13 +2585,233 @@
   </si>
   <si>
     <t>캐릭터 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 -&gt; 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 서버 접속, 접속해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 키 입력의 변경 (keyup or keydown)시 때마다 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 다른 플레이어나 오브젝트에 영향을 줄 때 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 -&gt; 클라이언트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 모든 유저들의 상태정보 (받는 유저 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 오브젝트 정보(파괴 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 4명 접속했거나 게임 시작시 더 이상 연결 안 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 명령어와 인자는 띄어쓰기로 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인자4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속시 유저 이름 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectCharater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int characterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택 혹은 변경시 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setupPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float position.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float position.y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float position.z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float directionY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int selectCharater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 시 캐릭터 위치, y축 방향, 선택한 캐릭터, 팀 정보를 보냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int characterDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방향키를 누르때, 뗄 때, 벽에 부딪칠때 마다 보냄. 동기화를 위해 현재 위치와 나아가는 방향을 보냄. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float directionX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float directionZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MonsterOrObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MonsterOrObjectNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총을 쐈을때 클라이언트에서 다른 캐릭터나 오브젝트를 맞췄다고 판단되면 보냄. 서버에서 메시지를 받으면 서버의 정보를 참고해 한번 더 판단. 만약 맞았다고 판단되면 처리함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 모션을 시작하면 보냄( 1 : 재장전, 2 : …?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherPlayerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int playerNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string playerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 접속시 다른 유저들에게 접속한 유저의 아이디와 번호를 넘긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 캐릭터 선택 혹은 변경시 메시지를 보낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherPlayerInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int charaterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대기방 접속시 미리 접속해있던 다른 플레이어의 정보를 보내준다. 새로운 유저가 접속시 대기중이던 유저들에게 보낸다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2262,7 +3341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2431,6 +3510,42 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2466,39 +3581,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2779,7 +3861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AK47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
@@ -2925,153 +4007,153 @@
     </row>
     <row r="26" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
     </row>
     <row r="27" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
     </row>
     <row r="28" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
     </row>
     <row r="29" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
     </row>
     <row r="30" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
@@ -3082,8 +4164,8 @@
       </c>
     </row>
     <row r="32" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="38">
         <v>30</v>
       </c>
@@ -3186,12 +4268,12 @@
         <v>15</v>
       </c>
       <c r="E33" s="33"/>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="73"/>
       <c r="J33" s="3"/>
       <c r="K33" s="28"/>
       <c r="L33" s="3"/>
@@ -3226,10 +4308,10 @@
         <v>16</v>
       </c>
       <c r="E34" s="35"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
       <c r="J34" s="3"/>
       <c r="K34" s="28"/>
       <c r="L34" s="3"/>
@@ -3264,12 +4346,12 @@
         <v>17</v>
       </c>
       <c r="E35" s="35"/>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="79"/>
       <c r="J35" s="3"/>
       <c r="K35" s="28"/>
       <c r="L35" s="3"/>
@@ -3856,10 +4938,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AK47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
@@ -4002,165 +5084,165 @@
     </row>
     <row r="26" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="27"/>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57" t="s">
+      <c r="E26" s="70"/>
+      <c r="F26" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57" t="s">
+      <c r="G26" s="69"/>
+      <c r="H26" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="69"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="69"/>
+      <c r="AE26" s="69"/>
+      <c r="AF26" s="69"/>
+      <c r="AG26" s="69"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
     </row>
     <row r="27" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57" t="s">
+      <c r="E27" s="70"/>
+      <c r="F27" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57" t="s">
+      <c r="G27" s="69"/>
+      <c r="H27" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="69"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="69"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
     </row>
     <row r="28" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57" t="s">
+      <c r="E28" s="70"/>
+      <c r="F28" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
     </row>
     <row r="29" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B29" s="27"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57" t="s">
+      <c r="E29" s="70"/>
+      <c r="F29" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57" t="s">
+      <c r="G29" s="69"/>
+      <c r="H29" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
     </row>
     <row r="30" spans="2:37" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
@@ -4171,8 +5253,8 @@
       </c>
     </row>
     <row r="32" spans="2:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="38">
         <v>30</v>
       </c>
@@ -4275,13 +5357,13 @@
         <v>15</v>
       </c>
       <c r="E33" s="33"/>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="74"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="62"/>
       <c r="K33" s="28"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -4315,11 +5397,11 @@
         <v>16</v>
       </c>
       <c r="E34" s="35"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="75"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="28"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -4353,13 +5435,13 @@
         <v>17</v>
       </c>
       <c r="E35" s="35"/>
-      <c r="F35" s="72" t="s">
+      <c r="F35" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="76"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="28"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4397,7 +5479,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="K36" s="77"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="6" t="s">
         <v>47</v>
       </c>
@@ -4436,7 +5518,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="K37" s="77"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="17" t="s">
         <v>43</v>
       </c>
@@ -4476,7 +5558,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="78"/>
+      <c r="K38" s="66"/>
       <c r="L38" s="11" t="s">
         <v>48</v>
       </c>
@@ -4558,7 +5640,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="78"/>
+      <c r="K40" s="66"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4678,7 +5760,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="78"/>
+      <c r="K43" s="66"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -4794,7 +5876,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="78"/>
+      <c r="K46" s="66"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4923,12 +6005,12 @@
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="X26:Y26"/>
     <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="N26:O26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4941,7 +6023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,4 +6085,375 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" customWidth="1"/>
+    <col min="14" max="14" width="76.75" style="67" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>